--- a/natmiOut/OldD4/LR-pairs_lrc2p/Fn1-Col13a1.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Fn1-Col13a1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>16.8972428395816</v>
+        <v>24.721787</v>
       </c>
       <c r="H2">
-        <v>16.8972428395816</v>
+        <v>74.16536099999999</v>
       </c>
       <c r="I2">
-        <v>0.01075326293749338</v>
+        <v>0.01340847400407589</v>
       </c>
       <c r="J2">
-        <v>0.01075326293749338</v>
+        <v>0.01345828544885583</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.290228054182965</v>
+        <v>0.3015963333333334</v>
       </c>
       <c r="N2">
-        <v>0.290228054182965</v>
+        <v>0.9047890000000001</v>
       </c>
       <c r="O2">
-        <v>0.5943164590385835</v>
+        <v>0.4737402899861982</v>
       </c>
       <c r="P2">
-        <v>0.5943164590385835</v>
+        <v>0.5687660179545673</v>
       </c>
       <c r="Q2">
-        <v>4.904053910388806</v>
+        <v>7.456000312647665</v>
       </c>
       <c r="R2">
-        <v>4.904053910388806</v>
+        <v>67.104002813829</v>
       </c>
       <c r="S2">
-        <v>0.006390841152121901</v>
+        <v>0.006352134362963314</v>
       </c>
       <c r="T2">
-        <v>0.006390841152121901</v>
+        <v>0.007654615423241625</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,60 +593,60 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>16.8972428395816</v>
+        <v>24.721787</v>
       </c>
       <c r="H3">
-        <v>16.8972428395816</v>
+        <v>74.16536099999999</v>
       </c>
       <c r="I3">
-        <v>0.01075326293749338</v>
+        <v>0.01340847400407589</v>
       </c>
       <c r="J3">
-        <v>0.01075326293749338</v>
+        <v>0.01345828544885583</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.198111196344376</v>
+        <v>0.01594066666666667</v>
       </c>
       <c r="N3">
-        <v>0.198111196344376</v>
+        <v>0.047822</v>
       </c>
       <c r="O3">
-        <v>0.4056835409614166</v>
+        <v>0.02503921704145383</v>
       </c>
       <c r="P3">
-        <v>0.4056835409614166</v>
+        <v>0.03006173650500096</v>
       </c>
       <c r="Q3">
-        <v>3.347532993870952</v>
+        <v>0.3940817659713333</v>
       </c>
       <c r="R3">
-        <v>3.347532993870952</v>
+        <v>3.546735893742</v>
       </c>
       <c r="S3">
-        <v>0.004362421785371477</v>
+        <v>0.0003357376907827479</v>
       </c>
       <c r="T3">
-        <v>0.004362421785371477</v>
+        <v>0.0004045794309725925</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
@@ -655,55 +655,55 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1339.72205469232</v>
+        <v>24.721787</v>
       </c>
       <c r="H4">
-        <v>1339.72205469232</v>
+        <v>74.16536099999999</v>
       </c>
       <c r="I4">
-        <v>0.8525878247733181</v>
+        <v>0.01340847400407589</v>
       </c>
       <c r="J4">
-        <v>0.8525878247733181</v>
+        <v>0.01345828544885583</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.290228054182965</v>
+        <v>0.319091</v>
       </c>
       <c r="N4">
-        <v>0.290228054182965</v>
+        <v>0.638182</v>
       </c>
       <c r="O4">
-        <v>0.5943164590385835</v>
+        <v>0.5012204929723481</v>
       </c>
       <c r="P4">
-        <v>0.5943164590385835</v>
+        <v>0.4011722455404317</v>
       </c>
       <c r="Q4">
-        <v>388.8249250793558</v>
+        <v>7.888499735616999</v>
       </c>
       <c r="R4">
-        <v>388.8249250793558</v>
+        <v>47.330998413702</v>
       </c>
       <c r="S4">
-        <v>0.5067069770386867</v>
+        <v>0.006720601950329834</v>
       </c>
       <c r="T4">
-        <v>0.5067069770386867</v>
+        <v>0.005399090594641609</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,60 +717,60 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1339.72205469232</v>
+        <v>1458.280985666667</v>
       </c>
       <c r="H5">
-        <v>1339.72205469232</v>
+        <v>4374.842957</v>
       </c>
       <c r="I5">
-        <v>0.8525878247733181</v>
+        <v>0.7909348416823457</v>
       </c>
       <c r="J5">
-        <v>0.8525878247733181</v>
+        <v>0.7938731034993884</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.198111196344376</v>
+        <v>0.3015963333333334</v>
       </c>
       <c r="N5">
-        <v>0.198111196344376</v>
+        <v>0.9047890000000001</v>
       </c>
       <c r="O5">
-        <v>0.4056835409614166</v>
+        <v>0.4737402899861982</v>
       </c>
       <c r="P5">
-        <v>0.4056835409614166</v>
+        <v>0.5687660179545673</v>
       </c>
       <c r="Q5">
-        <v>265.413939024041</v>
+        <v>439.8121982467859</v>
       </c>
       <c r="R5">
-        <v>265.413939024041</v>
+        <v>3958.309784221073</v>
       </c>
       <c r="S5">
-        <v>0.3458808477346315</v>
+        <v>0.3746977012587822</v>
       </c>
       <c r="T5">
-        <v>0.3458808477346315</v>
+        <v>0.4515280438385812</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,60 +779,60 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>54.8493693618876</v>
+        <v>1458.280985666667</v>
       </c>
       <c r="H6">
-        <v>54.8493693618876</v>
+        <v>4374.842957</v>
       </c>
       <c r="I6">
-        <v>0.03490567640552861</v>
+        <v>0.7909348416823457</v>
       </c>
       <c r="J6">
-        <v>0.03490567640552861</v>
+        <v>0.7938731034993884</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.290228054182965</v>
+        <v>0.01594066666666667</v>
       </c>
       <c r="N6">
-        <v>0.290228054182965</v>
+        <v>0.047822</v>
       </c>
       <c r="O6">
-        <v>0.5943164590385835</v>
+        <v>0.02503921704145383</v>
       </c>
       <c r="P6">
-        <v>0.5943164590385835</v>
+        <v>0.03006173650500096</v>
       </c>
       <c r="Q6">
-        <v>15.91882574306337</v>
+        <v>23.24597109885045</v>
       </c>
       <c r="R6">
-        <v>15.91882574306337</v>
+        <v>209.213739889654</v>
       </c>
       <c r="S6">
-        <v>0.0207450180016804</v>
+        <v>0.01980438916653218</v>
       </c>
       <c r="T6">
-        <v>0.0207450180016804</v>
+        <v>0.02386520405580597</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>25</v>
@@ -844,57 +844,57 @@
         <v>24</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>54.8493693618876</v>
+        <v>1458.280985666667</v>
       </c>
       <c r="H7">
-        <v>54.8493693618876</v>
+        <v>4374.842957</v>
       </c>
       <c r="I7">
-        <v>0.03490567640552861</v>
+        <v>0.7909348416823457</v>
       </c>
       <c r="J7">
-        <v>0.03490567640552861</v>
+        <v>0.7938731034993884</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.198111196344376</v>
+        <v>0.319091</v>
       </c>
       <c r="N7">
-        <v>0.198111196344376</v>
+        <v>0.638182</v>
       </c>
       <c r="O7">
-        <v>0.4056835409614166</v>
+        <v>0.5012204929723481</v>
       </c>
       <c r="P7">
-        <v>0.4056835409614166</v>
+        <v>0.4011722455404317</v>
       </c>
       <c r="Q7">
-        <v>10.86627418301812</v>
+        <v>465.3243379973623</v>
       </c>
       <c r="R7">
-        <v>10.86627418301812</v>
+        <v>2791.946027984174</v>
       </c>
       <c r="S7">
-        <v>0.01416065840384822</v>
+        <v>0.3964327512570314</v>
       </c>
       <c r="T7">
-        <v>0.01416065840384822</v>
+        <v>0.3184798556050012</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -906,57 +906,57 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>139.42070551673</v>
+        <v>60.09979000000001</v>
       </c>
       <c r="H8">
-        <v>139.42070551673</v>
+        <v>180.29937</v>
       </c>
       <c r="I8">
-        <v>0.0887261619890026</v>
+        <v>0.03259661091107292</v>
       </c>
       <c r="J8">
-        <v>0.0887261619890026</v>
+        <v>0.03271770480169137</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.290228054182965</v>
+        <v>0.3015963333333334</v>
       </c>
       <c r="N8">
-        <v>0.290228054182965</v>
+        <v>0.9047890000000001</v>
       </c>
       <c r="O8">
-        <v>0.5943164590385835</v>
+        <v>0.4737402899861982</v>
       </c>
       <c r="P8">
-        <v>0.5943164590385835</v>
+        <v>0.5687660179545673</v>
       </c>
       <c r="Q8">
-        <v>40.46380007493672</v>
+        <v>18.12587629810334</v>
       </c>
       <c r="R8">
-        <v>40.46380007493672</v>
+        <v>163.13288668293</v>
       </c>
       <c r="S8">
-        <v>0.05273141841738779</v>
+        <v>0.01544232790557895</v>
       </c>
       <c r="T8">
-        <v>0.05273141841738779</v>
+        <v>0.01860871867667102</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -965,60 +965,60 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>139.42070551673</v>
+        <v>60.09979000000001</v>
       </c>
       <c r="H9">
-        <v>139.42070551673</v>
+        <v>180.29937</v>
       </c>
       <c r="I9">
-        <v>0.0887261619890026</v>
+        <v>0.03259661091107292</v>
       </c>
       <c r="J9">
-        <v>0.0887261619890026</v>
+        <v>0.03271770480169137</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.198111196344376</v>
+        <v>0.01594066666666667</v>
       </c>
       <c r="N9">
-        <v>0.198111196344376</v>
+        <v>0.047822</v>
       </c>
       <c r="O9">
-        <v>0.4056835409614166</v>
+        <v>0.02503921704145383</v>
       </c>
       <c r="P9">
-        <v>0.4056835409614166</v>
+        <v>0.03006173650500096</v>
       </c>
       <c r="Q9">
-        <v>27.62080276509633</v>
+        <v>0.9580307191266669</v>
       </c>
       <c r="R9">
-        <v>27.62080276509633</v>
+        <v>8.622276472140001</v>
       </c>
       <c r="S9">
-        <v>0.03599474357161482</v>
+        <v>0.0008161936154181769</v>
       </c>
       <c r="T9">
-        <v>0.03599474357161482</v>
+        <v>0.0009835510207968506</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,60 +1027,60 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>20.4702174927483</v>
+        <v>60.09979000000001</v>
       </c>
       <c r="H10">
-        <v>20.4702174927483</v>
+        <v>180.29937</v>
       </c>
       <c r="I10">
-        <v>0.01302707389465733</v>
+        <v>0.03259661091107292</v>
       </c>
       <c r="J10">
-        <v>0.01302707389465733</v>
+        <v>0.03271770480169137</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.290228054182965</v>
+        <v>0.319091</v>
       </c>
       <c r="N10">
-        <v>0.290228054182965</v>
+        <v>0.638182</v>
       </c>
       <c r="O10">
-        <v>0.5943164590385835</v>
+        <v>0.5012204929723481</v>
       </c>
       <c r="P10">
-        <v>0.5943164590385835</v>
+        <v>0.4011722455404317</v>
       </c>
       <c r="Q10">
-        <v>5.941031391622432</v>
+        <v>19.17730209089</v>
       </c>
       <c r="R10">
-        <v>5.941031391622432</v>
+        <v>115.06381254534</v>
       </c>
       <c r="S10">
-        <v>0.007742204428706712</v>
+        <v>0.01633808939007579</v>
       </c>
       <c r="T10">
-        <v>0.007742204428706712</v>
+        <v>0.01312543510422349</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,55 +1089,365 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>280.168911</v>
+      </c>
+      <c r="H11">
+        <v>840.5067330000001</v>
+      </c>
+      <c r="I11">
+        <v>0.1519565539454633</v>
+      </c>
+      <c r="J11">
+        <v>0.152521060800867</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0.3015963333333334</v>
+      </c>
+      <c r="N11">
+        <v>0.9047890000000001</v>
+      </c>
+      <c r="O11">
+        <v>0.4737402899861982</v>
+      </c>
+      <c r="P11">
+        <v>0.5687660179545673</v>
+      </c>
+      <c r="Q11">
+        <v>84.49791627159301</v>
+      </c>
+      <c r="R11">
+        <v>760.4812464443371</v>
+      </c>
+      <c r="S11">
+        <v>0.07198794193142717</v>
+      </c>
+      <c r="T11">
+        <v>0.08674879640591558</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>280.168911</v>
+      </c>
+      <c r="H12">
+        <v>840.5067330000001</v>
+      </c>
+      <c r="I12">
+        <v>0.1519565539454633</v>
+      </c>
+      <c r="J12">
+        <v>0.152521060800867</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.01594066666666667</v>
+      </c>
+      <c r="N12">
+        <v>0.047822</v>
+      </c>
+      <c r="O12">
+        <v>0.02503921704145383</v>
+      </c>
+      <c r="P12">
+        <v>0.03006173650500096</v>
+      </c>
+      <c r="Q12">
+        <v>4.466079220614001</v>
+      </c>
+      <c r="R12">
+        <v>40.194712985526</v>
+      </c>
+      <c r="S12">
+        <v>0.003804873135111844</v>
+      </c>
+      <c r="T12">
+        <v>0.004585047941258896</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>24</v>
       </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>20.4702174927483</v>
-      </c>
-      <c r="H11">
-        <v>20.4702174927483</v>
-      </c>
-      <c r="I11">
-        <v>0.01302707389465733</v>
-      </c>
-      <c r="J11">
-        <v>0.01302707389465733</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>0.198111196344376</v>
-      </c>
-      <c r="N11">
-        <v>0.198111196344376</v>
-      </c>
-      <c r="O11">
-        <v>0.4056835409614166</v>
-      </c>
-      <c r="P11">
-        <v>0.4056835409614166</v>
-      </c>
-      <c r="Q11">
-        <v>4.055379276917939</v>
-      </c>
-      <c r="R11">
-        <v>4.055379276917939</v>
-      </c>
-      <c r="S11">
-        <v>0.005284869465950616</v>
-      </c>
-      <c r="T11">
-        <v>0.005284869465950616</v>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>280.168911</v>
+      </c>
+      <c r="H13">
+        <v>840.5067330000001</v>
+      </c>
+      <c r="I13">
+        <v>0.1519565539454633</v>
+      </c>
+      <c r="J13">
+        <v>0.152521060800867</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.319091</v>
+      </c>
+      <c r="N13">
+        <v>0.638182</v>
+      </c>
+      <c r="O13">
+        <v>0.5012204929723481</v>
+      </c>
+      <c r="P13">
+        <v>0.4011722455404317</v>
+      </c>
+      <c r="Q13">
+        <v>89.39937797990102</v>
+      </c>
+      <c r="R13">
+        <v>536.3962678794061</v>
+      </c>
+      <c r="S13">
+        <v>0.07616373887892433</v>
+      </c>
+      <c r="T13">
+        <v>0.06118721645369254</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>20.472042</v>
+      </c>
+      <c r="H14">
+        <v>40.944084</v>
+      </c>
+      <c r="I14">
+        <v>0.01110351945704208</v>
+      </c>
+      <c r="J14">
+        <v>0.00742984544919738</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0.3015963333333334</v>
+      </c>
+      <c r="N14">
+        <v>0.9047890000000001</v>
+      </c>
+      <c r="O14">
+        <v>0.4737402899861982</v>
+      </c>
+      <c r="P14">
+        <v>0.5687660179545673</v>
+      </c>
+      <c r="Q14">
+        <v>6.174292803046001</v>
+      </c>
+      <c r="R14">
+        <v>37.045756818276</v>
+      </c>
+      <c r="S14">
+        <v>0.005260184527446509</v>
+      </c>
+      <c r="T14">
+        <v>0.004225843610157856</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>20.472042</v>
+      </c>
+      <c r="H15">
+        <v>40.944084</v>
+      </c>
+      <c r="I15">
+        <v>0.01110351945704208</v>
+      </c>
+      <c r="J15">
+        <v>0.00742984544919738</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M15">
+        <v>0.01594066666666667</v>
+      </c>
+      <c r="N15">
+        <v>0.047822</v>
+      </c>
+      <c r="O15">
+        <v>0.02503921704145383</v>
+      </c>
+      <c r="P15">
+        <v>0.03006173650500096</v>
+      </c>
+      <c r="Q15">
+        <v>0.3263379975080001</v>
+      </c>
+      <c r="R15">
+        <v>1.958027985048</v>
+      </c>
+      <c r="S15">
+        <v>0.0002780234336088823</v>
+      </c>
+      <c r="T15">
+        <v>0.0002233540561666522</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>20.472042</v>
+      </c>
+      <c r="H16">
+        <v>40.944084</v>
+      </c>
+      <c r="I16">
+        <v>0.01110351945704208</v>
+      </c>
+      <c r="J16">
+        <v>0.00742984544919738</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.319091</v>
+      </c>
+      <c r="N16">
+        <v>0.638182</v>
+      </c>
+      <c r="O16">
+        <v>0.5012204929723481</v>
+      </c>
+      <c r="P16">
+        <v>0.4011722455404317</v>
+      </c>
+      <c r="Q16">
+        <v>6.532444353822001</v>
+      </c>
+      <c r="R16">
+        <v>26.129777415288</v>
+      </c>
+      <c r="S16">
+        <v>0.00556531149598669</v>
+      </c>
+      <c r="T16">
+        <v>0.00298064778287287</v>
       </c>
     </row>
   </sheetData>
